--- a/数据守护者AI_融合版需求/数据守护者 AI_融合版功能清单_美化版.xlsx
+++ b/数据守护者AI_融合版需求/数据守护者 AI_融合版功能清单_美化版.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet!$A$1:$I$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="410">
   <si>
     <t>一级功能</t>
   </si>
@@ -973,60 +974,6 @@
   </si>
   <si>
     <t>反馈收集完整</t>
-  </si>
-  <si>
-    <t>排行榜系统</t>
-  </si>
-  <si>
-    <t>个人排名</t>
-  </si>
-  <si>
-    <t>周排名</t>
-  </si>
-  <si>
-    <t>显示个人周度绩效排名。排名算法：周任务完成数×0.3+周平均质量分×0.3+按时完成率×0.2+数据更新量×0.1+协作贡献×0.1</t>
-  </si>
-  <si>
-    <t>月排名</t>
-  </si>
-  <si>
-    <t>显示个人月度绩效排名。排名算法：月任务总完成数×0.25+月平均质量分×0.25+按时完成率×0.2+效率提升度×0.15+数据质量贡献×0.15，支持月度同比环比分析</t>
-  </si>
-  <si>
-    <t>年度排名</t>
-  </si>
-  <si>
-    <t>显示个人年度绩效排名。排名算法：年度总任务量×0.2+年度平均质量×0.2+成长提升度×0.2+创新贡献×0.15+协作领导力×0.15+目标达成率×0.1，重点考量持续性和成长性</t>
-  </si>
-  <si>
-    <t>排名统计准确</t>
-  </si>
-  <si>
-    <t>团队排名</t>
-  </si>
-  <si>
-    <t>团队对比</t>
-  </si>
-  <si>
-    <t>显示团队间绩效排名对比。对比指标：团队平均绩效、任务完成率、质量达标率、效率指数、协作度、创新力，支持多维度对比分析</t>
-  </si>
-  <si>
-    <t>部门排名</t>
-  </si>
-  <si>
-    <t>显示部门间绩效排名。排名指标：部门任务完成总量、平均质量得分、人员活跃度、目标达成率、管理效能、部门协作度，按综合得分排名</t>
-  </si>
-  <si>
-    <t>部门排名准确</t>
-  </si>
-  <si>
-    <t>区域排名</t>
-  </si>
-  <si>
-    <t>显示区域间绩效排名。排名指标：区域数据质量综合分、任务完成密度、网格覆盖率、问题处理效率、数据更新及时性、区域协调配合度，按区域综合治理效果排名</t>
-  </si>
-  <si>
-    <t>区域排名准确</t>
   </si>
   <si>
     <t>系统支撑</t>
@@ -2135,14 +2082,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2956,7 +2903,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行表格样式_cc8cea" count="10" xr9:uid="{8E994584-AC87-4807-8F96-17F309DF8F44}">
+    <tableStyle name="中色系标题行表格样式_cc8cea" count="10" xr9:uid="{50431C62-08FE-346A-2F25-6B68BCDCBE4D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
@@ -2968,7 +2915,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="1"/>
       <tableStyleElement type="lastTotalCell" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="简约边框浅色系标题行镶边行表格样式_a1d1bd" count="10" xr9:uid="{00058F4F-7B89-4EBC-A6E5-D03ADD9A2AC4}">
+    <tableStyle name="简约边框浅色系标题行镶边行表格样式_a1d1bd" count="10" xr9:uid="{22033C5D-766B-22D0-2F25-6B68A977984D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2980,7 +2927,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="11"/>
       <tableStyleElement type="lastTotalCell" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="简约边框浅色系标题行镶边行表格样式_ef84e4" count="10" xr9:uid="{A685A579-E36E-4875-BAE6-FD96D65142C7}">
+    <tableStyle name="简约边框浅色系标题行镶边行表格样式_ef84e4" count="10" xr9:uid="{D77A6705-2359-9220-2F25-6B683F161FEB}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2999,6 +2946,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="96" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open main="3" threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open main="10" threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5852,7 +5815,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13408660" y="0"/>
+        <a:off x="14239875" y="0"/>
         <a:ext cx="5399405" cy="2699385"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5877,7 +5840,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13408660" y="2571750"/>
+        <a:off x="14239875" y="2571750"/>
         <a:ext cx="5399405" cy="2699385"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6176,20 +6139,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="10.7964601769912" customWidth="1"/>
-    <col min="4" max="5" width="40.4247787610619" customWidth="1"/>
-    <col min="6" max="6" width="8.84955752212389" customWidth="1"/>
-    <col min="7" max="7" width="11.3185840707965" customWidth="1"/>
-    <col min="8" max="8" width="14.3274336283186" customWidth="1"/>
-    <col min="9" max="9" width="21.3451327433628" customWidth="1"/>
+    <col min="1" max="3" width="10.8" customWidth="1"/>
+    <col min="4" max="5" width="40.425" customWidth="1"/>
+    <col min="6" max="6" width="8.85" customWidth="1"/>
+    <col min="7" max="7" width="11.3166666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.325" customWidth="1"/>
+    <col min="9" max="9" width="21.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:9">
@@ -6231,10 +6194,10 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -6251,22 +6214,22 @@
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -6274,22 +6237,22 @@
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -6297,9 +6260,9 @@
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -6308,13 +6271,13 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -6322,22 +6285,22 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -6345,13 +6308,13 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -6360,13 +6323,13 @@
       <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -6374,22 +6337,22 @@
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -6397,22 +6360,22 @@
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -6420,22 +6383,22 @@
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -6443,9 +6406,9 @@
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -6454,13 +6417,13 @@
       <c r="E11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -6468,22 +6431,22 @@
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -6491,22 +6454,22 @@
       </c>
     </row>
     <row r="13" ht="68" customHeight="1" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -6514,22 +6477,22 @@
       </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -6537,9 +6500,9 @@
       </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -6548,13 +6511,13 @@
       <c r="E15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -6562,22 +6525,22 @@
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -6585,22 +6548,22 @@
       </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -6608,11 +6571,11 @@
       </c>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -6621,13 +6584,13 @@
       <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -6635,22 +6598,22 @@
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -6658,22 +6621,22 @@
       </c>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="11" t="s">
@@ -6681,22 +6644,22 @@
       </c>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -6704,9 +6667,9 @@
       </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -6715,13 +6678,13 @@
       <c r="E22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="11" t="s">
@@ -6729,22 +6692,22 @@
       </c>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="11" t="s">
@@ -6752,22 +6715,22 @@
       </c>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I24" s="11" t="s">
@@ -6775,22 +6738,22 @@
       </c>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -6798,9 +6761,9 @@
       </c>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -6809,13 +6772,13 @@
       <c r="E26" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -6823,22 +6786,22 @@
       </c>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -6846,22 +6809,22 @@
       </c>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -6869,22 +6832,22 @@
       </c>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -6892,22 +6855,22 @@
       </c>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -6915,11 +6878,11 @@
       </c>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -6928,13 +6891,13 @@
       <c r="E31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -6942,22 +6905,22 @@
       </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -6965,22 +6928,22 @@
       </c>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="G33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -6988,22 +6951,22 @@
       </c>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -7011,13 +6974,13 @@
       </c>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -7026,13 +6989,13 @@
       <c r="E35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -7040,22 +7003,22 @@
       </c>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -7063,22 +7026,22 @@
       </c>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -7086,22 +7049,22 @@
       </c>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -7109,9 +7072,9 @@
       </c>
     </row>
     <row r="39" ht="35" customHeight="1" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -7120,13 +7083,13 @@
       <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -7134,22 +7097,22 @@
       </c>
     </row>
     <row r="40" ht="35" customHeight="1" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="8" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -7157,22 +7120,22 @@
       </c>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -7180,22 +7143,22 @@
       </c>
     </row>
     <row r="42" ht="35" customHeight="1" spans="1:9">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -7203,9 +7166,9 @@
       </c>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -7214,13 +7177,13 @@
       <c r="E43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="F43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I43" s="11" t="s">
@@ -7228,22 +7191,22 @@
       </c>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="F44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -7251,22 +7214,22 @@
       </c>
     </row>
     <row r="45" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -7274,22 +7237,22 @@
       </c>
     </row>
     <row r="46" ht="35" customHeight="1" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="8" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -7297,9 +7260,9 @@
       </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -7308,13 +7271,13 @@
       <c r="E47" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="F47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -7322,22 +7285,22 @@
       </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I48" s="11" t="s">
@@ -7345,22 +7308,22 @@
       </c>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="F49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -7368,22 +7331,22 @@
       </c>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="F50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -7391,11 +7354,11 @@
       </c>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -7404,13 +7367,13 @@
       <c r="E51" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="F51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -7418,22 +7381,22 @@
       </c>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -7441,22 +7404,22 @@
       </c>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -7464,9 +7427,9 @@
       </c>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -7475,13 +7438,13 @@
       <c r="E54" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="F54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -7489,22 +7452,22 @@
       </c>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="8" t="s">
         <v>204</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="G55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I55" s="11" t="s">
@@ -7512,22 +7475,22 @@
       </c>
     </row>
     <row r="56" ht="35" customHeight="1" spans="1:9">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="8" t="s">
         <v>206</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -7535,22 +7498,22 @@
       </c>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="8" t="s">
         <v>209</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I57" s="11" t="s">
@@ -7558,22 +7521,22 @@
       </c>
     </row>
     <row r="58" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -7581,22 +7544,22 @@
       </c>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="8" t="s">
         <v>215</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="F59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I59" s="11" t="s">
@@ -7604,22 +7567,22 @@
       </c>
     </row>
     <row r="60" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I60" s="11" t="s">
@@ -7627,11 +7590,11 @@
       </c>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -7640,13 +7603,13 @@
       <c r="E61" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I61" s="11" t="s">
@@ -7654,22 +7617,22 @@
       </c>
     </row>
     <row r="62" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="8" t="s">
         <v>226</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="F62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I62" s="11" t="s">
@@ -7677,22 +7640,22 @@
       </c>
     </row>
     <row r="63" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I63" s="11" t="s">
@@ -7700,13 +7663,13 @@
       </c>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>234</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -7715,13 +7678,13 @@
       <c r="E64" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="7" t="s">
+      <c r="F64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -7729,22 +7692,22 @@
       </c>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="8" t="s">
         <v>238</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="F65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I65" s="11" t="s">
@@ -7752,22 +7715,22 @@
       </c>
     </row>
     <row r="66" ht="68" customHeight="1" spans="1:9">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="F66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I66" s="11" t="s">
@@ -7775,22 +7738,22 @@
       </c>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="F67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I67" s="11" t="s">
@@ -7798,9 +7761,9 @@
       </c>
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
         <v>247</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -7809,13 +7772,13 @@
       <c r="E68" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="F68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -7823,22 +7786,22 @@
       </c>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="8" t="s">
         <v>251</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="F69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I69" s="11" t="s">
@@ -7846,22 +7809,22 @@
       </c>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="8" t="s">
         <v>254</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="G70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I70" s="11" t="s">
@@ -7869,22 +7832,22 @@
       </c>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="8" t="s">
         <v>257</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="G71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I71" s="11" t="s">
@@ -7892,11 +7855,11 @@
       </c>
     </row>
     <row r="72" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>260</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -7905,13 +7868,13 @@
       <c r="E72" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="F72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -7919,22 +7882,22 @@
       </c>
     </row>
     <row r="73" ht="68" customHeight="1" spans="1:9">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="8" t="s">
         <v>263</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="F73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I73" s="11" t="s">
@@ -7942,22 +7905,22 @@
       </c>
     </row>
     <row r="74" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="G74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I74" s="11" t="s">
@@ -7965,22 +7928,22 @@
       </c>
     </row>
     <row r="75" ht="84.5" customHeight="1" spans="1:9">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="8" t="s">
         <v>269</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -7988,9 +7951,9 @@
       </c>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
         <v>272</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -7999,13 +7962,13 @@
       <c r="E76" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="F76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I76" s="11" t="s">
@@ -8013,22 +7976,22 @@
       </c>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="8" t="s">
         <v>276</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="F77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -8036,22 +7999,22 @@
       </c>
     </row>
     <row r="78" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
         <v>279</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="F78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -8059,22 +8022,22 @@
       </c>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="8" t="s">
         <v>282</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="G79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -8082,13 +8045,13 @@
       </c>
     </row>
     <row r="80" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>287</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -8097,34 +8060,34 @@
       <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>289</v>
       </c>
       <c r="I80" s="11"/>
     </row>
     <row r="81" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="8" t="s">
         <v>290</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="7" t="s">
+      <c r="F81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I81" s="11" t="s">
@@ -8132,22 +8095,22 @@
       </c>
     </row>
     <row r="82" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="7" t="s">
+      <c r="G82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I82" s="11" t="s">
@@ -8155,9 +8118,9 @@
       </c>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
         <v>295</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -8166,13 +8129,13 @@
       <c r="E83" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="7" t="s">
+      <c r="F83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I83" s="11" t="s">
@@ -8180,22 +8143,22 @@
       </c>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="8" t="s">
         <v>299</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="F84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I84" s="11" t="s">
@@ -8203,22 +8166,22 @@
       </c>
     </row>
     <row r="85" ht="84.5" customHeight="1" spans="1:9">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="8" t="s">
         <v>261</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="F85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I85" s="11" t="s">
@@ -8226,9 +8189,9 @@
       </c>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7" t="s">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -8237,13 +8200,13 @@
       <c r="E86" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="F86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I86" s="11" t="s">
@@ -8251,22 +8214,22 @@
       </c>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="8" t="s">
         <v>308</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="7" t="s">
+      <c r="F87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I87" s="11" t="s">
@@ -8274,615 +8237,474 @@
       </c>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="7" t="s">
+      <c r="G88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7" t="s">
+    <row r="89" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A89" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>315</v>
       </c>
+      <c r="C89" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I89" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="90" ht="68" customHeight="1" spans="1:9">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="7" t="s">
+      <c r="I95" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I90" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" ht="68" customHeight="1" spans="1:9">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F91" s="7" t="s">
+      <c r="I96" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="G97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I91" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="7" t="s">
+      <c r="I97" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I92" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="93" ht="51.5" customHeight="1" spans="1:9">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" s="7" t="s">
+      <c r="I99" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="G100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I93" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" ht="68" customHeight="1" spans="1:9">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F94" s="7" t="s">
+      <c r="I105" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="7" t="s">
+      <c r="G106" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I94" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A95" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="96" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="98" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="101" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="102" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="103" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="104" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="106" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="107" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="I106" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="108" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="109" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="111" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" ht="18.5" customHeight="1" spans="1:9">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>396</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I106" etc:filterBottomFollowUsedRange="1">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="48">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A34"/>
     <mergeCell ref="A35:A63"/>
     <mergeCell ref="A64:A79"/>
     <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A112"/>
+    <mergeCell ref="A89:A106"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B17"/>
     <mergeCell ref="B18:B30"/>
@@ -8896,7 +8718,6 @@
     <mergeCell ref="B89:B94"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B107:B112"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C10"/>
@@ -8926,8 +8747,6 @@
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8945,14 +8764,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3097345132743" customWidth="1"/>
-    <col min="2" max="3" width="12.787610619469" customWidth="1"/>
-    <col min="4" max="4" width="23.7964601769912" customWidth="1"/>
-    <col min="5" max="5" width="50.3805309734513" customWidth="1"/>
-    <col min="6" max="6" width="10.8407079646018" customWidth="1"/>
-    <col min="7" max="7" width="13.3097345132743" customWidth="1"/>
-    <col min="8" max="8" width="16.3185840707965" customWidth="1"/>
-    <col min="9" max="9" width="24.3362831858407" customWidth="1"/>
+    <col min="1" max="1" width="13.3083333333333" customWidth="1"/>
+    <col min="2" max="3" width="12.7916666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="50.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.8416666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.3083333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.3166666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
@@ -8997,7 +8816,7 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -9014,22 +8833,22 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -9037,22 +8856,22 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -9060,24 +8879,24 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -9085,22 +8904,22 @@
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -9108,28 +8927,28 @@
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -9137,22 +8956,22 @@
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -9160,22 +8979,22 @@
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -9183,22 +9002,22 @@
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -9206,24 +9025,24 @@
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -9231,22 +9050,22 @@
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -9254,22 +9073,22 @@
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -9277,22 +9096,22 @@
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -9300,24 +9119,24 @@
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -9325,22 +9144,22 @@
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -9348,22 +9167,22 @@
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -9371,26 +9190,26 @@
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -9398,22 +9217,22 @@
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -9421,22 +9240,22 @@
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="11" t="s">
@@ -9444,22 +9263,22 @@
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -9467,24 +9286,24 @@
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="11" t="s">
@@ -9492,22 +9311,22 @@
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="11" t="s">
@@ -9515,22 +9334,22 @@
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I24" s="11" t="s">
@@ -9538,22 +9357,22 @@
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -9561,24 +9380,24 @@
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -9586,22 +9405,22 @@
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -9609,22 +9428,22 @@
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -9632,22 +9451,22 @@
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -9655,22 +9474,22 @@
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -9678,26 +9497,26 @@
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -9705,22 +9524,22 @@
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -9728,22 +9547,22 @@
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="G33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -9751,22 +9570,22 @@
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -9774,28 +9593,28 @@
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>137</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -9803,22 +9622,22 @@
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -9826,22 +9645,22 @@
       </c>
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>143</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -9849,22 +9668,22 @@
       </c>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -9872,24 +9691,24 @@
       </c>
     </row>
     <row r="39" ht="39" customHeight="1" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -9897,22 +9716,22 @@
       </c>
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -9920,22 +9739,22 @@
       </c>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -9943,22 +9762,22 @@
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:9">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -9966,24 +9785,24 @@
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="F43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I43" s="11" t="s">
@@ -9991,22 +9810,22 @@
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="F44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -10014,22 +9833,22 @@
       </c>
     </row>
     <row r="45" ht="39" customHeight="1" spans="1:9">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -10037,22 +9856,22 @@
       </c>
     </row>
     <row r="46" ht="39" customHeight="1" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -10060,24 +9879,24 @@
       </c>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="F47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -10085,22 +9904,22 @@
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I48" s="11" t="s">
@@ -10108,22 +9927,22 @@
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="F49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -10131,22 +9950,22 @@
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="F50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -10154,26 +9973,26 @@
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>191</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="F51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -10181,22 +10000,22 @@
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -10204,22 +10023,22 @@
       </c>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -10227,24 +10046,24 @@
       </c>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>201</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="F54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -10252,22 +10071,22 @@
       </c>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="G55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I55" s="11" t="s">
@@ -10275,22 +10094,22 @@
       </c>
     </row>
     <row r="56" ht="39" customHeight="1" spans="1:9">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
         <v>206</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -10298,22 +10117,22 @@
       </c>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I57" s="11" t="s">
@@ -10321,22 +10140,22 @@
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -10344,22 +10163,22 @@
       </c>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="F59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I59" s="11" t="s">
@@ -10367,22 +10186,22 @@
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
         <v>218</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="F60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I60" s="11" t="s">
@@ -10390,26 +10209,26 @@
       </c>
     </row>
     <row r="61" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I61" s="11" t="s">
@@ -10417,22 +10236,22 @@
       </c>
     </row>
     <row r="62" ht="39" customHeight="1" spans="1:9">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
         <v>226</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="F62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I62" s="11" t="s">
@@ -10440,45 +10259,45 @@
       </c>
     </row>
     <row r="63" ht="39" customHeight="1" spans="1:9">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
-        <v>401</v>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" ht="39" customHeight="1" spans="1:9">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
         <v>229</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -10486,122 +10305,122 @@
       </c>
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>405</v>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
-        <v>408</v>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
-        <v>411</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
-        <v>414</v>
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="F69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I69" s="11" t="s">
@@ -10609,22 +10428,22 @@
       </c>
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="F70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I70" s="11" t="s">
@@ -10632,22 +10451,22 @@
       </c>
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
         <v>241</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I71" s="11" t="s">
@@ -10655,22 +10474,22 @@
       </c>
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="F72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -10678,24 +10497,24 @@
       </c>
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="F73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I73" s="11" t="s">
@@ -10703,22 +10522,22 @@
       </c>
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="F74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I74" s="11" t="s">
@@ -10726,22 +10545,22 @@
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
         <v>254</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -10749,22 +10568,22 @@
       </c>
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
         <v>257</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="G76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I76" s="11" t="s">
@@ -10772,26 +10591,26 @@
       </c>
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>261</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -10799,22 +10618,22 @@
       </c>
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -10822,22 +10641,22 @@
       </c>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
         <v>266</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="F79" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="G79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -10845,22 +10664,22 @@
       </c>
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6" t="s">
         <v>269</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F80" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="7" t="s">
+      <c r="G80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I80" s="11" t="s">
@@ -10868,24 +10687,24 @@
       </c>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>273</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="7" t="s">
+      <c r="F81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I81" s="11" t="s">
@@ -10893,22 +10712,22 @@
       </c>
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
         <v>276</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="7" t="s">
+      <c r="F82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I82" s="11" t="s">
@@ -10916,22 +10735,22 @@
       </c>
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
         <v>279</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I83" s="11" t="s">
@@ -10939,22 +10758,22 @@
       </c>
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="G84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I84" s="11" t="s">
@@ -10962,49 +10781,49 @@
       </c>
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>423</v>
+      <c r="D85" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="7" t="s">
+      <c r="F85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>289</v>
       </c>
       <c r="I85" s="11"/>
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I86" s="11" t="s">
@@ -11012,22 +10831,22 @@
       </c>
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6" t="s">
         <v>273</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F87" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="7" t="s">
+      <c r="G87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I87" s="11" t="s">
@@ -11035,24 +10854,24 @@
       </c>
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7" t="s">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>296</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="7" t="s">
+      <c r="F88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I88" s="11" t="s">
@@ -11060,22 +10879,22 @@
       </c>
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7" t="s">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
         <v>299</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="7" t="s">
+      <c r="F89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I89" s="11" t="s">
@@ -11083,22 +10902,22 @@
       </c>
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
         <v>261</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -11106,24 +10925,24 @@
       </c>
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>305</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="F91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I91" s="11" t="s">
@@ -11131,22 +10950,22 @@
       </c>
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
         <v>308</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="7" t="s">
+      <c r="F92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I92" s="11" t="s">
@@ -11154,22 +10973,22 @@
       </c>
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="G93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I93" s="11" t="s">
@@ -11177,497 +10996,497 @@
       </c>
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B94" s="7" t="s">
+    </row>
+    <row r="99" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="G99" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="7" t="s">
+    </row>
+    <row r="100" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="106" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="107" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="6">
+        <v>92</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A114" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="98" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="102" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="103" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="105" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="109" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="112" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="11"/>
-    </row>
-    <row r="113" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A113" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="7">
-        <v>92</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A114" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>24</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="11"/>
     </row>
     <row r="115" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>3</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="11"/>
     </row>
     <row r="116" ht="22.5" customHeight="1" spans="1:9">
@@ -11686,6 +11505,7 @@
       <c r="I116" s="15"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I116" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
@@ -11744,4 +11564,48 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="425685723648" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>